--- a/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.76007423310148</v>
+        <v>30.92638674372001</v>
       </c>
       <c r="C2">
-        <v>15.81344906681263</v>
+        <v>24.16604616856672</v>
       </c>
       <c r="D2">
-        <v>9.557355437776604</v>
+        <v>4.119762527198828</v>
       </c>
       <c r="E2">
-        <v>13.46515620090307</v>
+        <v>30.78243789255326</v>
       </c>
       <c r="F2">
-        <v>63.25534168175785</v>
+        <v>42.24959456308243</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,30 +445,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.09398378354375</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>11.57608553292103</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.79408326454361</v>
+        <v>28.60340085304417</v>
       </c>
       <c r="C3">
-        <v>14.63559734807121</v>
+        <v>22.35362873094137</v>
       </c>
       <c r="D3">
-        <v>9.057180446550369</v>
+        <v>4.060446711155064</v>
       </c>
       <c r="E3">
-        <v>12.43429412351634</v>
+        <v>28.36036910608604</v>
       </c>
       <c r="F3">
-        <v>59.11165657251941</v>
+        <v>39.5057609928672</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -474,30 +486,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.88419647635361</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>11.81313934937775</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54015608892012</v>
+        <v>27.11882095887154</v>
       </c>
       <c r="C4">
-        <v>13.88575206855041</v>
+        <v>21.19666097027796</v>
       </c>
       <c r="D4">
-        <v>8.747552156375543</v>
+        <v>4.033103614239494</v>
       </c>
       <c r="E4">
-        <v>11.81760916995154</v>
+        <v>26.82753490645202</v>
       </c>
       <c r="F4">
-        <v>56.50723770797894</v>
+        <v>37.80393676872913</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -509,30 +527,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.11337053592421</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>11.96399407076815</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.01683011181682</v>
+        <v>26.49853973923523</v>
       </c>
       <c r="C5">
-        <v>13.57308201996611</v>
+        <v>20.71351994421899</v>
       </c>
       <c r="D5">
-        <v>8.620676391031726</v>
+        <v>4.023999283830877</v>
       </c>
       <c r="E5">
-        <v>11.57905810576859</v>
+        <v>26.19031398175013</v>
       </c>
       <c r="F5">
-        <v>55.43033568674512</v>
+        <v>37.10592810434793</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -544,30 +568,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.79181648419765</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>12.02672299307596</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.9291716761478</v>
+        <v>26.39460077003927</v>
       </c>
       <c r="C6">
-        <v>13.52072362892951</v>
+        <v>20.63257478449652</v>
       </c>
       <c r="D6">
-        <v>8.599565299616909</v>
+        <v>4.022603861503219</v>
       </c>
       <c r="E6">
-        <v>11.53924249272629</v>
+        <v>26.08371517075136</v>
       </c>
       <c r="F6">
-        <v>55.25056904995274</v>
+        <v>36.98975184428136</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -579,30 +609,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.73796298582379</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>12.03721290925391</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53314899665033</v>
+        <v>27.11051839215674</v>
       </c>
       <c r="C7">
-        <v>13.88156454269276</v>
+        <v>21.19019310208883</v>
       </c>
       <c r="D7">
-        <v>8.745843958243935</v>
+        <v>4.032972885485929</v>
       </c>
       <c r="E7">
-        <v>11.81440566044861</v>
+        <v>26.81899338502323</v>
       </c>
       <c r="F7">
-        <v>56.49277767081209</v>
+        <v>37.79454147052961</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -614,30 +650,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.10906453836971</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>11.96483506583798</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.09154319654723</v>
+        <v>30.13709005629706</v>
       </c>
       <c r="C8">
-        <v>15.41259479079738</v>
+        <v>23.54991832851236</v>
       </c>
       <c r="D8">
-        <v>9.385365204399097</v>
+        <v>4.097272775812977</v>
       </c>
       <c r="E8">
-        <v>13.11442751880972</v>
+        <v>29.95607716918784</v>
       </c>
       <c r="F8">
-        <v>61.83871631773103</v>
+        <v>41.3068584393977</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -649,30 +691,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.68241035198854</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>11.65666678052075</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.76812102853043</v>
+        <v>35.64511806468833</v>
       </c>
       <c r="C9">
-        <v>18.22514211428568</v>
+        <v>27.8576207028956</v>
       </c>
       <c r="D9">
-        <v>10.62491228161297</v>
+        <v>4.307654353920438</v>
       </c>
       <c r="E9">
-        <v>15.5724067544662</v>
+        <v>35.80544138111971</v>
       </c>
       <c r="F9">
-        <v>71.88372229999349</v>
+        <v>48.32446074833292</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -684,30 +732,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.56638201730739</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>11.0993637762798</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.04984851926291</v>
+        <v>39.49246324538992</v>
       </c>
       <c r="C10">
-        <v>20.21289871884221</v>
+        <v>30.88041477763297</v>
       </c>
       <c r="D10">
-        <v>11.53879389537302</v>
+        <v>4.533301650487461</v>
       </c>
       <c r="E10">
-        <v>17.30430321924862</v>
+        <v>40.02549327901439</v>
       </c>
       <c r="F10">
-        <v>79.10362725715167</v>
+        <v>53.59915494593491</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -719,30 +773,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.59827704805005</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>10.72850366607479</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.5252703961207</v>
+        <v>41.2178881409861</v>
       </c>
       <c r="C11">
-        <v>21.11119005789044</v>
+        <v>32.24077606262674</v>
       </c>
       <c r="D11">
-        <v>11.95955351622315</v>
+        <v>4.750982842790997</v>
       </c>
       <c r="E11">
-        <v>18.08507374521499</v>
+        <v>41.96225208747518</v>
       </c>
       <c r="F11">
-        <v>82.46763398637997</v>
+        <v>56.00957835476721</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -754,30 +814,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.51440727040082</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>10.57167147234229</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.08323844403932</v>
+        <v>41.86979625915991</v>
       </c>
       <c r="C12">
-        <v>21.45173005653196</v>
+        <v>32.75562308965576</v>
       </c>
       <c r="D12">
-        <v>12.12012924391702</v>
+        <v>4.848173292346564</v>
       </c>
       <c r="E12">
-        <v>18.38070832666049</v>
+        <v>42.7020785176816</v>
       </c>
       <c r="F12">
-        <v>83.74253599448163</v>
+        <v>56.92722483775018</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -789,30 +855,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.86132892539027</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>10.51442652005856</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.96306966393344</v>
+        <v>41.72942171519999</v>
       </c>
       <c r="C13">
-        <v>21.37834861031446</v>
+        <v>32.64471950817905</v>
       </c>
       <c r="D13">
-        <v>12.08548098311866</v>
+        <v>4.827151003529502</v>
       </c>
       <c r="E13">
-        <v>18.31702056057135</v>
+        <v>42.54238066359508</v>
       </c>
       <c r="F13">
-        <v>83.46784524859109</v>
+        <v>56.72931208791739</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -824,30 +896,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.78659068777387</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>10.52665125419462</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.5711777912136</v>
+        <v>41.27153636773456</v>
       </c>
       <c r="C14">
-        <v>21.13919066951534</v>
+        <v>32.28312627359794</v>
       </c>
       <c r="D14">
-        <v>11.97273568104341</v>
+        <v>4.758939016779768</v>
       </c>
       <c r="E14">
-        <v>18.10938965828947</v>
+        <v>42.02296199162014</v>
       </c>
       <c r="F14">
-        <v>82.57247480089079</v>
+        <v>56.08495322521808</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -859,30 +937,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.54294074485209</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>10.56691587305309</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.33109663615873</v>
+        <v>40.99094891539236</v>
       </c>
       <c r="C15">
-        <v>20.99279086489064</v>
+        <v>32.06166534756284</v>
       </c>
       <c r="D15">
-        <v>11.90385611040947</v>
+        <v>4.717409949137329</v>
       </c>
       <c r="E15">
-        <v>17.98224031461156</v>
+        <v>41.70577878096073</v>
       </c>
       <c r="F15">
-        <v>82.02429885536131</v>
+        <v>55.69101567136909</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -894,30 +978,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.39373900731128</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>10.59187389226251</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.95321577853656</v>
+        <v>39.37936975165772</v>
       </c>
       <c r="C16">
-        <v>20.1541715808431</v>
+        <v>30.79135996759426</v>
       </c>
       <c r="D16">
-        <v>11.5114382802185</v>
+        <v>4.525693947822461</v>
       </c>
       <c r="E16">
-        <v>17.25321454482041</v>
+        <v>39.89957560244356</v>
       </c>
       <c r="F16">
-        <v>78.88369576075399</v>
+        <v>53.44210661108909</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -929,30 +1019,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.53833498130806</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>10.7390259539697</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.10458005387336</v>
+        <v>38.38568776499605</v>
       </c>
       <c r="C17">
-        <v>19.63896150196882</v>
+        <v>30.00944053695503</v>
       </c>
       <c r="D17">
-        <v>11.27231215878025</v>
+        <v>4.461422445901912</v>
       </c>
       <c r="E17">
-        <v>16.80479596972974</v>
+        <v>38.79834502338173</v>
       </c>
       <c r="F17">
-        <v>76.99938126613172</v>
+        <v>52.06730821056258</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -964,30 +1060,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.0122224342924</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>10.83260664006617</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.61469609036809</v>
+        <v>37.81166532567919</v>
       </c>
       <c r="C18">
-        <v>19.34197668057893</v>
+        <v>29.55818115837446</v>
       </c>
       <c r="D18">
-        <v>11.13520736510109</v>
+        <v>4.426383074819167</v>
       </c>
       <c r="E18">
-        <v>16.54613922213857</v>
+        <v>38.16625362852616</v>
       </c>
       <c r="F18">
-        <v>75.92246284443679</v>
+        <v>51.27734125333606</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -999,30 +1101,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.70875982316415</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>10.8875160907923</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.44847894779542</v>
+        <v>37.61683033723034</v>
       </c>
       <c r="C19">
-        <v>19.24127868256563</v>
+        <v>29.40508394806557</v>
       </c>
       <c r="D19">
-        <v>11.08884731713862</v>
+        <v>4.414834672586355</v>
       </c>
       <c r="E19">
-        <v>16.45840953132229</v>
+        <v>37.95236128380686</v>
       </c>
       <c r="F19">
-        <v>75.55755881225031</v>
+        <v>51.0099219693819</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1034,30 +1142,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.60583432916624</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>10.90628272142599</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19509072697726</v>
+        <v>38.49171060654569</v>
       </c>
       <c r="C20">
-        <v>19.69386582258167</v>
+        <v>30.09282293162278</v>
       </c>
       <c r="D20">
-        <v>11.29771934584249</v>
+        <v>4.468060891431565</v>
       </c>
       <c r="E20">
-        <v>16.85260092963354</v>
+        <v>38.91541276053004</v>
       </c>
       <c r="F20">
-        <v>77.19858409913289</v>
+        <v>52.21355644643663</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1069,30 +1183,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.06830908576969</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>10.82252989562432</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.68628958812517</v>
+        <v>41.40604865158191</v>
       </c>
       <c r="C21">
-        <v>21.20941542065867</v>
+        <v>32.38932561538974</v>
       </c>
       <c r="D21">
-        <v>12.00581298415804</v>
+        <v>4.778920563482091</v>
       </c>
       <c r="E21">
-        <v>18.17036734669783</v>
+        <v>42.17531547735707</v>
       </c>
       <c r="F21">
-        <v>82.8354033581081</v>
+        <v>56.27405306066346</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1104,30 +1224,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.61449553605197</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>10.55502674051767</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.31131158148729</v>
+        <v>43.3036219484114</v>
       </c>
       <c r="C22">
-        <v>22.20295349114103</v>
+        <v>33.88981283707414</v>
       </c>
       <c r="D22">
-        <v>12.47621473650101</v>
+        <v>5.065922138699257</v>
       </c>
       <c r="E22">
-        <v>19.03212787549763</v>
+        <v>44.34617601160624</v>
       </c>
       <c r="F22">
-        <v>86.55318129047158</v>
+        <v>58.95863228266607</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1139,30 +1265,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.62584214960969</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>10.3930216497906</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.44357289986333</v>
+        <v>42.29063745891858</v>
       </c>
       <c r="C23">
-        <v>21.67190282257008</v>
+        <v>33.08825284238348</v>
       </c>
       <c r="D23">
-        <v>12.22423609283397</v>
+        <v>4.911511166595883</v>
       </c>
       <c r="E23">
-        <v>18.57173829807989</v>
+        <v>43.1821703277311</v>
       </c>
       <c r="F23">
-        <v>84.56658623507352</v>
+        <v>57.52160239715726</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1174,30 +1306,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.08551099569924</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>10.47812561429668</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.1541771828696</v>
+        <v>38.44378636743023</v>
       </c>
       <c r="C24">
-        <v>19.66904610843324</v>
+        <v>30.05513124908418</v>
       </c>
       <c r="D24">
-        <v>11.28623163474367</v>
+        <v>4.465053739899217</v>
       </c>
       <c r="E24">
-        <v>16.83099104121348</v>
+        <v>38.86248353755456</v>
       </c>
       <c r="F24">
-        <v>77.10852962456669</v>
+        <v>52.14743653489287</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1209,30 +1347,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.04295548971857</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>10.82708216926003</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.53456742189866</v>
+        <v>34.19524153789094</v>
       </c>
       <c r="C25">
-        <v>17.48121256436362</v>
+        <v>26.72171157539395</v>
       </c>
       <c r="D25">
-        <v>10.29015490631607</v>
+        <v>4.239859589837967</v>
       </c>
       <c r="E25">
-        <v>14.92298547664994</v>
+        <v>34.2458784956601</v>
       </c>
       <c r="F25">
-        <v>69.20608827825342</v>
+        <v>46.37477848998942</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1244,9 +1388,15 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.80447864424637</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.24426411762596</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
@@ -421,37 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.92638674372001</v>
+        <v>11.45994443272947</v>
       </c>
       <c r="C2">
-        <v>24.16604616856672</v>
+        <v>9.761471222033109</v>
       </c>
       <c r="D2">
-        <v>4.119762527198828</v>
+        <v>5.902341055489203</v>
       </c>
       <c r="E2">
-        <v>30.78243789255326</v>
+        <v>14.06959057220874</v>
       </c>
       <c r="F2">
-        <v>42.24959456308243</v>
+        <v>40.31541811521905</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>28.70169580431071</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.41527875815144</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.5387789195915</v>
       </c>
       <c r="N2">
-        <v>11.57608553292103</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.60340085304417</v>
+        <v>10.66843753003467</v>
       </c>
       <c r="C3">
-        <v>22.35362873094137</v>
+        <v>9.055237382419957</v>
       </c>
       <c r="D3">
-        <v>4.060446711155064</v>
+        <v>5.894403147259822</v>
       </c>
       <c r="E3">
-        <v>28.36036910608604</v>
+        <v>13.19396988205235</v>
       </c>
       <c r="F3">
-        <v>39.5057609928672</v>
+        <v>38.58890521176421</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>27.76710928029124</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.65417563025873</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.54076504411089</v>
       </c>
       <c r="N3">
-        <v>11.81313934937775</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.11882095887154</v>
+        <v>10.15725854734373</v>
       </c>
       <c r="C4">
-        <v>21.19666097027796</v>
+        <v>8.600190609828816</v>
       </c>
       <c r="D4">
-        <v>4.033103614239494</v>
+        <v>5.889505362684815</v>
       </c>
       <c r="E4">
-        <v>26.82753490645202</v>
+        <v>12.64015799845744</v>
       </c>
       <c r="F4">
-        <v>37.80393676872913</v>
+        <v>37.51562048502092</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.19284471938301</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.16352722658526</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.89793291043477</v>
       </c>
       <c r="N4">
-        <v>11.96399407076815</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.49853973923523</v>
+        <v>9.942530297577544</v>
       </c>
       <c r="C5">
-        <v>20.71351994421899</v>
+        <v>8.409287571723901</v>
       </c>
       <c r="D5">
-        <v>4.023999283830877</v>
+        <v>5.887498555239355</v>
       </c>
       <c r="E5">
-        <v>26.19031398175013</v>
+        <v>12.41052695462001</v>
       </c>
       <c r="F5">
-        <v>37.10592810434793</v>
+        <v>37.07533853072947</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>26.95888436108245</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.957650783346997</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.62830893887907</v>
       </c>
       <c r="N5">
-        <v>12.02672299307596</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.39460077003927</v>
+        <v>9.906484801965792</v>
       </c>
       <c r="C6">
-        <v>20.63257478449652</v>
+        <v>8.377255748280014</v>
       </c>
       <c r="D6">
-        <v>4.022603861503219</v>
+        <v>5.887164529793455</v>
       </c>
       <c r="E6">
-        <v>26.08371517075136</v>
+        <v>12.3721629610198</v>
       </c>
       <c r="F6">
-        <v>36.98975184428136</v>
+        <v>37.00206765998665</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>26.92004406793492</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.923105021781828</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.58307218936615</v>
       </c>
       <c r="N6">
-        <v>12.03721290925391</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.11051839215674</v>
+        <v>10.15438874374224</v>
       </c>
       <c r="C7">
-        <v>21.19019310208883</v>
+        <v>8.597638267724752</v>
       </c>
       <c r="D7">
-        <v>4.032972885485929</v>
+        <v>5.889478348635333</v>
       </c>
       <c r="E7">
-        <v>26.81899338502323</v>
+        <v>12.6370769034355</v>
       </c>
       <c r="F7">
-        <v>37.79454147052961</v>
+        <v>37.50969387658913</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.1896889848063</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.16077481048689</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.89432783723228</v>
       </c>
       <c r="N7">
-        <v>11.96483506583798</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.13709005629706</v>
+        <v>11.19220863467817</v>
       </c>
       <c r="C8">
-        <v>23.54991832851236</v>
+        <v>9.522354880196902</v>
       </c>
       <c r="D8">
-        <v>4.097272775812977</v>
+        <v>5.899605944946128</v>
       </c>
       <c r="E8">
-        <v>29.95607716918784</v>
+        <v>13.77108992709501</v>
       </c>
       <c r="F8">
-        <v>41.3068584393977</v>
+        <v>39.72307854887093</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28.37962966806393</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.15764868230103</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.20083091377471</v>
       </c>
       <c r="N8">
-        <v>11.65666678052075</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.64511806468833</v>
+        <v>13.03160471811023</v>
       </c>
       <c r="C9">
-        <v>27.8576207028956</v>
+        <v>11.1698980736573</v>
       </c>
       <c r="D9">
-        <v>4.307654353920438</v>
+        <v>5.919519268973287</v>
       </c>
       <c r="E9">
-        <v>35.80544138111971</v>
+        <v>15.96458988932238</v>
       </c>
       <c r="F9">
-        <v>48.32446074833292</v>
+        <v>43.94480155096716</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>30.7038983391939</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.93095626788001</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.53000164376912</v>
       </c>
       <c r="N9">
-        <v>11.0993637762798</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.49246324538992</v>
+        <v>14.26988054211122</v>
       </c>
       <c r="C10">
-        <v>30.88041477763297</v>
+        <v>12.28557738568596</v>
       </c>
       <c r="D10">
-        <v>4.533301650487461</v>
+        <v>5.934557103421457</v>
       </c>
       <c r="E10">
-        <v>40.02549327901439</v>
+        <v>17.57828789374496</v>
       </c>
       <c r="F10">
-        <v>53.59915494593491</v>
+        <v>46.96134385110183</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>32.40047685331134</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.12877402339411</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.10792750996591</v>
       </c>
       <c r="N10">
-        <v>10.72850366607479</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41.2178881409861</v>
+        <v>14.81016578668192</v>
       </c>
       <c r="C11">
-        <v>32.24077606262674</v>
+        <v>12.77413251536085</v>
       </c>
       <c r="D11">
-        <v>4.750982842790997</v>
+        <v>5.941582731101914</v>
       </c>
       <c r="E11">
-        <v>41.96225208747518</v>
+        <v>18.28672478990244</v>
       </c>
       <c r="F11">
-        <v>56.00957835476721</v>
+        <v>48.31416173295393</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>33.16948306008592</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.65234167003813</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.7990150209346</v>
       </c>
       <c r="N11">
-        <v>10.57167147234229</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.86979625915991</v>
+        <v>15.01158883174321</v>
       </c>
       <c r="C12">
-        <v>32.75562308965576</v>
+        <v>12.95655486666307</v>
       </c>
       <c r="D12">
-        <v>4.848173292346564</v>
+        <v>5.944278985556942</v>
       </c>
       <c r="E12">
-        <v>42.7020785176816</v>
+        <v>18.55153617866739</v>
       </c>
       <c r="F12">
-        <v>56.92722483775018</v>
+        <v>48.82367328614639</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>33.46030514980611</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.84767367346789</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.05707604857975</v>
       </c>
       <c r="N12">
-        <v>10.51442652005856</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.72942171519999</v>
+        <v>14.96834746877214</v>
       </c>
       <c r="C13">
-        <v>32.64471950817905</v>
+        <v>12.91737933269948</v>
       </c>
       <c r="D13">
-        <v>4.827151003529502</v>
+        <v>5.943696546516472</v>
       </c>
       <c r="E13">
-        <v>42.54238066359508</v>
+        <v>18.49465416719417</v>
       </c>
       <c r="F13">
-        <v>56.72931208791739</v>
+        <v>48.71406282104289</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>33.39768774748958</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.80573350045838</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.00165633291006</v>
       </c>
       <c r="N13">
-        <v>10.52665125419462</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41.27153636773456</v>
+        <v>14.82679969795053</v>
       </c>
       <c r="C14">
-        <v>32.28312627359794</v>
+        <v>12.78919138567278</v>
       </c>
       <c r="D14">
-        <v>4.758939016779768</v>
+        <v>5.941803778842057</v>
       </c>
       <c r="E14">
-        <v>42.02296199162014</v>
+        <v>18.30857887946643</v>
       </c>
       <c r="F14">
-        <v>56.08495322521808</v>
+        <v>48.35613465652154</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>33.19341661087427</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.66846967769639</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.82031753489769</v>
       </c>
       <c r="N14">
-        <v>10.56691587305309</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.99094891539236</v>
+        <v>14.73968894443827</v>
       </c>
       <c r="C15">
-        <v>32.06166534756284</v>
+        <v>12.71034079253563</v>
       </c>
       <c r="D15">
-        <v>4.717409949137329</v>
+        <v>5.940649361032071</v>
       </c>
       <c r="E15">
-        <v>41.70577878096073</v>
+        <v>18.19415929619728</v>
       </c>
       <c r="F15">
-        <v>55.69101567136909</v>
+        <v>48.1365345726629</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>33.06824588451816</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.58401410321282</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.70877484211556</v>
       </c>
       <c r="N15">
-        <v>10.59187389226251</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.37936975165772</v>
+        <v>14.23412003568799</v>
       </c>
       <c r="C16">
-        <v>30.79135996759426</v>
+        <v>12.25327944401048</v>
       </c>
       <c r="D16">
-        <v>4.525693947822461</v>
+        <v>5.934102442716198</v>
       </c>
       <c r="E16">
-        <v>39.89957560244356</v>
+        <v>17.5314928435348</v>
       </c>
       <c r="F16">
-        <v>53.44210661108909</v>
+        <v>46.87254305133594</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>32.35016490979909</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.09413969675667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.06224251724414</v>
       </c>
       <c r="N16">
-        <v>10.7390259539697</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.38568776499605</v>
+        <v>13.91816967609215</v>
       </c>
       <c r="C17">
-        <v>30.00944053695503</v>
+        <v>11.96812622685798</v>
       </c>
       <c r="D17">
-        <v>4.461422445901912</v>
+        <v>5.930139654938738</v>
       </c>
       <c r="E17">
-        <v>38.79834502338173</v>
+        <v>17.11855529194525</v>
       </c>
       <c r="F17">
-        <v>52.06730821056258</v>
+        <v>46.09213849320552</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>31.90893126921931</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.78824674323708</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.65891001148222</v>
       </c>
       <c r="N17">
-        <v>10.83260664006617</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>37.81166532567919</v>
+        <v>13.73426830213268</v>
       </c>
       <c r="C18">
-        <v>29.55818115837446</v>
+        <v>11.80231821873792</v>
       </c>
       <c r="D18">
-        <v>4.426383074819167</v>
+        <v>5.927877144715419</v>
       </c>
       <c r="E18">
-        <v>38.16625362852616</v>
+        <v>16.87861569661025</v>
       </c>
       <c r="F18">
-        <v>51.27734125333606</v>
+        <v>45.64143560968907</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>31.65488047419253</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.61028897217606</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.42439543922594</v>
       </c>
       <c r="N18">
-        <v>10.8875160907923</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.61683033723034</v>
+        <v>13.67162490280593</v>
       </c>
       <c r="C19">
-        <v>29.40508394806557</v>
+        <v>11.74586593556879</v>
       </c>
       <c r="D19">
-        <v>4.414834672586355</v>
+        <v>5.927113717931844</v>
       </c>
       <c r="E19">
-        <v>37.95236128380686</v>
+        <v>16.79695257843778</v>
       </c>
       <c r="F19">
-        <v>51.0099219693819</v>
+        <v>45.48852099035653</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>31.56881801427891</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.54968537931271</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.34455276043595</v>
       </c>
       <c r="N19">
-        <v>10.90628272142599</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.49171060654569</v>
+        <v>13.95202728871914</v>
       </c>
       <c r="C20">
-        <v>30.09282293162278</v>
+        <v>11.99866608977089</v>
       </c>
       <c r="D20">
-        <v>4.468060891431565</v>
+        <v>5.930559700752011</v>
       </c>
       <c r="E20">
-        <v>38.91541276053004</v>
+        <v>17.16276300242935</v>
       </c>
       <c r="F20">
-        <v>52.21355644643663</v>
+        <v>46.1754039086811</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>31.95592878997633</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.82101731528013</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.70210572409405</v>
       </c>
       <c r="N20">
-        <v>10.82252989562432</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.40604865158191</v>
+        <v>14.86846060667388</v>
       </c>
       <c r="C21">
-        <v>32.38932561538974</v>
+        <v>12.82691215164522</v>
       </c>
       <c r="D21">
-        <v>4.778920563482091</v>
+        <v>5.942358679316589</v>
       </c>
       <c r="E21">
-        <v>42.17531547735707</v>
+        <v>18.36332559399882</v>
       </c>
       <c r="F21">
-        <v>56.27405306066346</v>
+        <v>48.46134143449527</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>33.25342606381093</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.70886580098441</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.87367815337554</v>
       </c>
       <c r="N21">
-        <v>10.55502674051767</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.3036219484114</v>
+        <v>15.44899288287499</v>
       </c>
       <c r="C22">
-        <v>33.88981283707414</v>
+        <v>13.35324354150385</v>
       </c>
       <c r="D22">
-        <v>5.065922138699257</v>
+        <v>5.950283885022484</v>
       </c>
       <c r="E22">
-        <v>44.34617601160624</v>
+        <v>19.12793237394504</v>
       </c>
       <c r="F22">
-        <v>58.95863228266607</v>
+        <v>49.93925441981658</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>34.09921868796154</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.27211236790133</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.61827079589542</v>
       </c>
       <c r="N22">
-        <v>10.3930216497906</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42.29063745891858</v>
+        <v>15.14078701430479</v>
       </c>
       <c r="C23">
-        <v>33.08825284238348</v>
+        <v>13.07364839706562</v>
       </c>
       <c r="D23">
-        <v>4.911511166595883</v>
+        <v>5.946031102655561</v>
       </c>
       <c r="E23">
-        <v>43.1821703277311</v>
+        <v>18.72159690931053</v>
       </c>
       <c r="F23">
-        <v>57.52160239715726</v>
+        <v>49.15190548116703</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>33.64798708088155</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.97300500122687</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.222724572114</v>
       </c>
       <c r="N23">
-        <v>10.47812561429668</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.44378636743023</v>
+        <v>13.93672730329062</v>
       </c>
       <c r="C24">
-        <v>30.05513124908418</v>
+        <v>11.98486485199188</v>
       </c>
       <c r="D24">
-        <v>4.465053739899217</v>
+        <v>5.930369749669287</v>
       </c>
       <c r="E24">
-        <v>38.86248353755456</v>
+        <v>17.14278461345464</v>
       </c>
       <c r="F24">
-        <v>52.14743653489287</v>
+        <v>46.13776596249032</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>31.93468239406785</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.80620827771587</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.68258515974807</v>
       </c>
       <c r="N24">
-        <v>10.82708216926003</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.19524153789094</v>
+        <v>12.55434682710415</v>
       </c>
       <c r="C25">
-        <v>26.72171157539395</v>
+        <v>10.74133094572925</v>
       </c>
       <c r="D25">
-        <v>4.239859589837967</v>
+        <v>5.914090219271172</v>
       </c>
       <c r="E25">
-        <v>34.2458784956601</v>
+        <v>15.34621339403783</v>
       </c>
       <c r="F25">
-        <v>46.37477848998942</v>
+        <v>42.8170494137291</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>30.076794964692</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.47012420461083</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.92399310138972</v>
       </c>
       <c r="N25">
-        <v>11.24426411762596</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.45994443272947</v>
+        <v>9.490853973133028</v>
       </c>
       <c r="C2">
-        <v>9.761471222033109</v>
+        <v>7.059523881024897</v>
       </c>
       <c r="D2">
-        <v>5.902341055489203</v>
+        <v>7.230165426828693</v>
       </c>
       <c r="E2">
-        <v>14.06959057220874</v>
+        <v>11.73157900122326</v>
       </c>
       <c r="F2">
-        <v>40.31541811521905</v>
+        <v>38.72962792929074</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>28.70169580431071</v>
+        <v>30.23405911477384</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.41527875815144</v>
+        <v>10.65070691646894</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.5387789195915</v>
+        <v>14.67389947728568</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.66843753003467</v>
+        <v>9.349053031241409</v>
       </c>
       <c r="C3">
-        <v>9.055237382419957</v>
+        <v>6.853847722206553</v>
       </c>
       <c r="D3">
-        <v>5.894403147259822</v>
+        <v>7.215854189163934</v>
       </c>
       <c r="E3">
-        <v>13.19396988205235</v>
+        <v>11.49052634643767</v>
       </c>
       <c r="F3">
-        <v>38.58890521176421</v>
+        <v>38.26644242949571</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>27.76710928029124</v>
+        <v>30.00185048550613</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.65417563025873</v>
+        <v>10.55337400510496</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.54076504411089</v>
+        <v>14.54821924202106</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.15725854734373</v>
+        <v>9.265014795258494</v>
       </c>
       <c r="C4">
-        <v>8.600190609828816</v>
+        <v>6.726976198064682</v>
       </c>
       <c r="D4">
-        <v>5.889505362684815</v>
+        <v>7.206760901445862</v>
       </c>
       <c r="E4">
-        <v>12.64015799845744</v>
+        <v>11.34354466096585</v>
       </c>
       <c r="F4">
-        <v>37.51562048502092</v>
+        <v>37.98535806896166</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>27.19284471938301</v>
+        <v>29.86185222809561</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.16352722658526</v>
+        <v>10.49705343536182</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.89793291043477</v>
+        <v>14.47503259056664</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.942530297577544</v>
+        <v>9.231584466157647</v>
       </c>
       <c r="C5">
-        <v>8.409287571723901</v>
+        <v>6.675220826125182</v>
       </c>
       <c r="D5">
-        <v>5.887498555239355</v>
+        <v>7.202978009991851</v>
       </c>
       <c r="E5">
-        <v>12.41052695462001</v>
+        <v>11.28399334106051</v>
       </c>
       <c r="F5">
-        <v>37.07533853072947</v>
+        <v>37.87174994336245</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>26.95888436108245</v>
+        <v>29.8054843989246</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.957650783346997</v>
+        <v>10.47499534734584</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.62830893887907</v>
+        <v>14.44623943025389</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.906484801965792</v>
+        <v>9.226084221934849</v>
       </c>
       <c r="C6">
-        <v>8.377255748280014</v>
+        <v>6.666626419588972</v>
       </c>
       <c r="D6">
-        <v>5.887164529793455</v>
+        <v>7.202345185233942</v>
       </c>
       <c r="E6">
-        <v>12.3721629610198</v>
+        <v>11.27412827762267</v>
       </c>
       <c r="F6">
-        <v>37.00206765998665</v>
+        <v>37.85294489761799</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>26.92004406793492</v>
+        <v>29.79616676047193</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.923105021781828</v>
+        <v>10.47138731598166</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.58307218936615</v>
+        <v>14.44152144567734</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.15438874374224</v>
+        <v>9.264560567851191</v>
       </c>
       <c r="C7">
-        <v>8.597638267724752</v>
+        <v>6.72627830018719</v>
       </c>
       <c r="D7">
-        <v>5.889478348635333</v>
+        <v>7.206710197493334</v>
       </c>
       <c r="E7">
-        <v>12.6370769034355</v>
+        <v>11.34274001899146</v>
       </c>
       <c r="F7">
-        <v>37.50969387658913</v>
+        <v>37.98382198597145</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>27.1896889848063</v>
+        <v>29.86108922411276</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.16077481048689</v>
+        <v>10.49675230181834</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.89432783723228</v>
+        <v>14.47464006373742</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.19220863467817</v>
+        <v>9.441365741201418</v>
       </c>
       <c r="C8">
-        <v>9.522354880196902</v>
+        <v>6.988782632331001</v>
       </c>
       <c r="D8">
-        <v>5.899605944946128</v>
+        <v>7.225294254072629</v>
       </c>
       <c r="E8">
-        <v>13.77108992709501</v>
+        <v>11.64830309370899</v>
       </c>
       <c r="F8">
-        <v>39.72307854887093</v>
+        <v>38.56929616942895</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>28.37962966806393</v>
+        <v>30.15347924391639</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.15764868230103</v>
+        <v>10.6164491451988</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.20083091377471</v>
+        <v>14.62975710341379</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.03160471811023</v>
+        <v>9.809637075753136</v>
       </c>
       <c r="C9">
-        <v>11.1698980736573</v>
+        <v>7.495071363077701</v>
       </c>
       <c r="D9">
-        <v>5.919519268973287</v>
+        <v>7.259323597300813</v>
       </c>
       <c r="E9">
-        <v>15.96458988932238</v>
+        <v>12.25188957793822</v>
       </c>
       <c r="F9">
-        <v>43.94480155096716</v>
+        <v>39.73910344683886</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>30.7038983391939</v>
+        <v>30.74576070239681</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.93095626788001</v>
+        <v>10.87718919878514</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.53000164376912</v>
+        <v>14.96412290620878</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.26988054211122</v>
+        <v>10.08998293828777</v>
       </c>
       <c r="C10">
-        <v>12.28557738568596</v>
+        <v>7.857132262130587</v>
       </c>
       <c r="D10">
-        <v>5.934557103421457</v>
+        <v>7.282874863594794</v>
       </c>
       <c r="E10">
-        <v>17.57828789374496</v>
+        <v>12.69312999769564</v>
       </c>
       <c r="F10">
-        <v>46.96134385110183</v>
+        <v>40.60557248003014</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>32.40047685331134</v>
+        <v>31.19028275970065</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.12877402339411</v>
+        <v>11.08276397493688</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.10792750996591</v>
+        <v>15.22616885684334</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.81016578668192</v>
+        <v>10.21892906082955</v>
       </c>
       <c r="C11">
-        <v>12.77413251536085</v>
+        <v>8.018810742887123</v>
       </c>
       <c r="D11">
-        <v>5.941582731101914</v>
+        <v>7.293278613833576</v>
       </c>
       <c r="E11">
-        <v>18.28672478990244</v>
+        <v>12.89240667693938</v>
       </c>
       <c r="F11">
-        <v>48.31416173295393</v>
+        <v>40.99995357179799</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>33.16948306008592</v>
+        <v>31.39406609418549</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.65234167003813</v>
+        <v>11.17890880643802</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.7990150209346</v>
+        <v>15.3484815013898</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.01158883174321</v>
+        <v>10.26790286915725</v>
       </c>
       <c r="C12">
-        <v>12.95655486666307</v>
+        <v>8.079534345704808</v>
       </c>
       <c r="D12">
-        <v>5.944278985556942</v>
+        <v>7.297174014412657</v>
       </c>
       <c r="E12">
-        <v>18.55153617866739</v>
+        <v>12.96758360663901</v>
       </c>
       <c r="F12">
-        <v>48.82367328614639</v>
+        <v>41.14921750816891</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>33.46030514980611</v>
+        <v>31.47141773517905</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.84767367346789</v>
+        <v>11.21565811775076</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.05707604857975</v>
+        <v>15.39520507833234</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.96834746877214</v>
+        <v>10.25734996710994</v>
       </c>
       <c r="C13">
-        <v>12.91737933269948</v>
+        <v>8.066479670605771</v>
       </c>
       <c r="D13">
-        <v>5.943696546516472</v>
+        <v>7.296337034881593</v>
       </c>
       <c r="E13">
-        <v>18.49465416719417</v>
+        <v>12.95140675591179</v>
       </c>
       <c r="F13">
-        <v>48.71406282104289</v>
+        <v>41.11707614151177</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>33.39768774748958</v>
+        <v>31.45475119735264</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.80573350045838</v>
+        <v>11.20772889969647</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.00165633291006</v>
+        <v>15.38512489131764</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.82679969795053</v>
+        <v>10.22295559669147</v>
       </c>
       <c r="C14">
-        <v>12.78919138567278</v>
+        <v>8.023816895085718</v>
       </c>
       <c r="D14">
-        <v>5.941803778842057</v>
+        <v>7.293599976511578</v>
       </c>
       <c r="E14">
-        <v>18.30857887946643</v>
+        <v>12.89859766165071</v>
       </c>
       <c r="F14">
-        <v>48.35613465652154</v>
+        <v>41.0122358321031</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>33.19341661087427</v>
+        <v>31.40042642911888</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.66846967769639</v>
+        <v>11.18192556373004</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.82031753489769</v>
+        <v>15.35231756547202</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.73968894443827</v>
+        <v>10.20190517778816</v>
       </c>
       <c r="C15">
-        <v>12.71034079253563</v>
+        <v>7.9976176896738</v>
       </c>
       <c r="D15">
-        <v>5.940649361032071</v>
+        <v>7.291917691693619</v>
       </c>
       <c r="E15">
-        <v>18.19415929619728</v>
+        <v>12.8662112650869</v>
       </c>
       <c r="F15">
-        <v>48.1365345726629</v>
+        <v>40.94800447544914</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>33.06824588451816</v>
+        <v>31.36717355539487</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.58401410321282</v>
+        <v>11.1661636388525</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.70877484211556</v>
+        <v>15.33227385492697</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.23412003568799</v>
+        <v>10.08157942515319</v>
       </c>
       <c r="C16">
-        <v>12.25327944401048</v>
+        <v>7.846499579351908</v>
       </c>
       <c r="D16">
-        <v>5.934102442716198</v>
+        <v>7.282188743419779</v>
       </c>
       <c r="E16">
-        <v>17.5314928435348</v>
+        <v>12.68007103168743</v>
       </c>
       <c r="F16">
-        <v>46.87254305133594</v>
+        <v>40.57979362402677</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>32.35016490979909</v>
+        <v>31.17699299670829</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.09413969675667</v>
+        <v>11.07653044952934</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.06224251724414</v>
+        <v>15.21823452057557</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.91816967609215</v>
+        <v>10.00808368230075</v>
       </c>
       <c r="C17">
-        <v>11.96812622685798</v>
+        <v>7.752970153796382</v>
       </c>
       <c r="D17">
-        <v>5.930139654938738</v>
+        <v>7.276141193124398</v>
       </c>
       <c r="E17">
-        <v>17.11855529194525</v>
+        <v>12.56545364517371</v>
       </c>
       <c r="F17">
-        <v>46.09213849320552</v>
+        <v>40.35388483872986</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>31.90893126921931</v>
+        <v>31.06069512301909</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.78824674323708</v>
+        <v>11.02219059195381</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.65891001148222</v>
+        <v>15.14904229988144</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.73426830213268</v>
+        <v>9.965947538484672</v>
       </c>
       <c r="C18">
-        <v>11.80231821873792</v>
+        <v>7.698893309955588</v>
       </c>
       <c r="D18">
-        <v>5.927877144715419</v>
+        <v>7.272633622236022</v>
       </c>
       <c r="E18">
-        <v>16.87861569661025</v>
+        <v>12.49939700971851</v>
       </c>
       <c r="F18">
-        <v>45.64143560968907</v>
+        <v>40.22397535109284</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>31.65488047419253</v>
+        <v>30.99395380603571</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.61028897217606</v>
+        <v>10.99118530936737</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.42439543922594</v>
+        <v>15.10953963589323</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.67162490280593</v>
+        <v>9.951706252334592</v>
       </c>
       <c r="C19">
-        <v>11.74586593556879</v>
+        <v>7.680537624500958</v>
       </c>
       <c r="D19">
-        <v>5.927113717931844</v>
+        <v>7.271440998675349</v>
       </c>
       <c r="E19">
-        <v>16.79695257843778</v>
+        <v>12.477011154117</v>
       </c>
       <c r="F19">
-        <v>45.48852099035653</v>
+        <v>40.17999833266003</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>31.56881801427891</v>
+        <v>30.97138340833535</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.54968537931271</v>
+        <v>10.98073142270708</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.34455276043595</v>
+        <v>15.09621657444386</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.95202728871914</v>
+        <v>10.01589371634871</v>
       </c>
       <c r="C20">
-        <v>11.99866608977089</v>
+        <v>7.762956117759384</v>
       </c>
       <c r="D20">
-        <v>5.930559700752011</v>
+        <v>7.276787983150395</v>
       </c>
       <c r="E20">
-        <v>17.16276300242935</v>
+        <v>12.57766906765967</v>
       </c>
       <c r="F20">
-        <v>46.1754039086811</v>
+        <v>40.37793120399202</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>31.95592878997633</v>
+        <v>31.07305999525992</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.82101731528013</v>
+        <v>11.02794959682388</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.70210572409405</v>
+        <v>15.15637770186731</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.86846060667388</v>
+        <v>10.23305459067286</v>
       </c>
       <c r="C21">
-        <v>12.82691215164522</v>
+        <v>8.036362062403251</v>
       </c>
       <c r="D21">
-        <v>5.942358679316589</v>
+        <v>7.29440511627312</v>
       </c>
       <c r="E21">
-        <v>18.36332559399882</v>
+        <v>12.91411729429611</v>
       </c>
       <c r="F21">
-        <v>48.46134143449527</v>
+        <v>41.0430330107204</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>33.25342606381093</v>
+        <v>31.41637829306769</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.70886580098441</v>
+        <v>11.18949565771952</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.87367815337554</v>
+        <v>15.36194316578643</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.44899288287499</v>
+        <v>10.37579915618331</v>
       </c>
       <c r="C22">
-        <v>13.35324354150385</v>
+        <v>8.212105107874827</v>
       </c>
       <c r="D22">
-        <v>5.950283885022484</v>
+        <v>7.305660995430144</v>
       </c>
       <c r="E22">
-        <v>19.12793237394504</v>
+        <v>13.13231291977136</v>
       </c>
       <c r="F22">
-        <v>49.93925441981658</v>
+        <v>41.47720120374117</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>34.09921868796154</v>
+        <v>31.64180537875247</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.27211236790133</v>
+        <v>11.29704786123845</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.61827079589542</v>
+        <v>15.49864205475214</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.14078701430479</v>
+        <v>10.29955791637638</v>
       </c>
       <c r="C23">
-        <v>13.07364839706562</v>
+        <v>8.118597138785216</v>
       </c>
       <c r="D23">
-        <v>5.946031102655561</v>
+        <v>7.299677030823132</v>
       </c>
       <c r="E23">
-        <v>18.72159690931053</v>
+        <v>13.01603697400838</v>
       </c>
       <c r="F23">
-        <v>49.15190548116703</v>
+        <v>41.24556077354937</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>33.64798708088155</v>
+        <v>31.52140875375349</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.97300500122687</v>
+        <v>11.23947688772008</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.222724572114</v>
+        <v>15.42548170633239</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.93672730329062</v>
+        <v>10.01236242934034</v>
       </c>
       <c r="C24">
-        <v>11.98486485199188</v>
+        <v>7.758442410078827</v>
       </c>
       <c r="D24">
-        <v>5.930369749669287</v>
+        <v>7.276495665183417</v>
       </c>
       <c r="E24">
-        <v>17.14278461345464</v>
+        <v>12.57214697257131</v>
       </c>
       <c r="F24">
-        <v>46.13776596249032</v>
+        <v>40.36705993185304</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>31.93468239406785</v>
+        <v>31.06746945983807</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.80620827771587</v>
+        <v>11.02534521462394</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.68258515974807</v>
+        <v>15.15306050118369</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.55434682710415</v>
+        <v>9.708048747748261</v>
       </c>
       <c r="C25">
-        <v>10.74133094572925</v>
+        <v>7.359527348686844</v>
       </c>
       <c r="D25">
-        <v>5.914090219271172</v>
+        <v>7.250373940265181</v>
       </c>
       <c r="E25">
-        <v>15.34621339403783</v>
+        <v>12.08864971251935</v>
       </c>
       <c r="F25">
-        <v>42.8170494137291</v>
+        <v>39.42095730829759</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>30.076794964692</v>
+        <v>30.58372714413319</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.47012420461083</v>
+        <v>10.80405287423356</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.92399310138972</v>
+        <v>14.87063865240734</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.490853973133028</v>
+        <v>11.45994443272953</v>
       </c>
       <c r="C2">
-        <v>7.059523881024897</v>
+        <v>9.76147122203297</v>
       </c>
       <c r="D2">
-        <v>7.230165426828693</v>
+        <v>5.902341055489272</v>
       </c>
       <c r="E2">
-        <v>11.73157900122326</v>
+        <v>14.06959057220877</v>
       </c>
       <c r="F2">
-        <v>38.72962792929074</v>
+        <v>40.31541811521912</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>30.23405911477384</v>
+        <v>28.70169580431077</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.65070691646894</v>
+        <v>11.41527875815144</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.67389947728568</v>
+        <v>14.53877891959152</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.349053031241409</v>
+        <v>10.66843753003468</v>
       </c>
       <c r="C3">
-        <v>6.853847722206553</v>
+        <v>9.055237382419923</v>
       </c>
       <c r="D3">
-        <v>7.215854189163934</v>
+        <v>5.894403147259764</v>
       </c>
       <c r="E3">
-        <v>11.49052634643767</v>
+        <v>13.19396988205237</v>
       </c>
       <c r="F3">
-        <v>38.26644242949571</v>
+        <v>38.58890521176426</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>30.00185048550613</v>
+        <v>27.76710928029126</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.55337400510496</v>
+        <v>10.65417563025876</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.54821924202106</v>
+        <v>13.54076504411093</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.265014795258494</v>
+        <v>10.1572585473438</v>
       </c>
       <c r="C4">
-        <v>6.726976198064682</v>
+        <v>8.600190609828818</v>
       </c>
       <c r="D4">
-        <v>7.206760901445862</v>
+        <v>5.88950536268475</v>
       </c>
       <c r="E4">
-        <v>11.34354466096585</v>
+        <v>12.64015799845743</v>
       </c>
       <c r="F4">
-        <v>37.98535806896166</v>
+        <v>37.51562048502078</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>29.86185222809561</v>
+        <v>27.19284471938285</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.49705343536182</v>
+        <v>10.16352722658529</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.47503259056664</v>
+        <v>12.89793291043473</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.231584466157647</v>
+        <v>9.942530297577653</v>
       </c>
       <c r="C5">
-        <v>6.675220826125182</v>
+        <v>8.409287571723954</v>
       </c>
       <c r="D5">
-        <v>7.202978009991851</v>
+        <v>5.887498555239254</v>
       </c>
       <c r="E5">
-        <v>11.28399334106051</v>
+        <v>12.41052695462</v>
       </c>
       <c r="F5">
-        <v>37.87174994336245</v>
+        <v>37.0753385307294</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>29.8054843989246</v>
+        <v>26.95888436108238</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.47499534734584</v>
+        <v>9.957650783347081</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.44623943025389</v>
+        <v>12.62830893887913</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.226084221934849</v>
+        <v>9.906484801965822</v>
       </c>
       <c r="C6">
-        <v>6.666626419588972</v>
+        <v>8.377255748280046</v>
       </c>
       <c r="D6">
-        <v>7.202345185233942</v>
+        <v>5.887164529793525</v>
       </c>
       <c r="E6">
-        <v>11.27412827762267</v>
+        <v>12.3721629610198</v>
       </c>
       <c r="F6">
-        <v>37.85294489761799</v>
+        <v>37.00206765998673</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>29.79616676047193</v>
+        <v>26.92004406793501</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.47138731598166</v>
+        <v>9.92310502178184</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.44152144567734</v>
+        <v>12.58307218936618</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.264560567851191</v>
+        <v>10.15438874374236</v>
       </c>
       <c r="C7">
-        <v>6.72627830018719</v>
+        <v>8.597638267724655</v>
       </c>
       <c r="D7">
-        <v>7.206710197493334</v>
+        <v>5.889478348635302</v>
       </c>
       <c r="E7">
-        <v>11.34274001899146</v>
+        <v>12.63707690343553</v>
       </c>
       <c r="F7">
-        <v>37.98382198597145</v>
+        <v>37.50969387658945</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>29.86108922411276</v>
+        <v>27.18968898480651</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.49675230181834</v>
+        <v>10.16077481048695</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.47464006373742</v>
+        <v>12.89432783723229</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.441365741201418</v>
+        <v>11.1922086346781</v>
       </c>
       <c r="C8">
-        <v>6.988782632331001</v>
+        <v>9.522354880196795</v>
       </c>
       <c r="D8">
-        <v>7.225294254072629</v>
+        <v>5.899605944946167</v>
       </c>
       <c r="E8">
-        <v>11.64830309370899</v>
+        <v>13.77108992709498</v>
       </c>
       <c r="F8">
-        <v>38.56929616942895</v>
+        <v>39.72307854887086</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>30.15347924391639</v>
+        <v>28.37962966806392</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.6164491451988</v>
+        <v>11.15764868230094</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.62975710341379</v>
+        <v>14.20083091377465</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.809637075753136</v>
+        <v>13.03160471811035</v>
       </c>
       <c r="C9">
-        <v>7.495071363077701</v>
+        <v>11.16989807365736</v>
       </c>
       <c r="D9">
-        <v>7.259323597300813</v>
+        <v>5.919519268973406</v>
       </c>
       <c r="E9">
-        <v>12.25188957793822</v>
+        <v>15.96458988932239</v>
       </c>
       <c r="F9">
-        <v>39.73910344683886</v>
+        <v>43.94480155096714</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>30.74576070239681</v>
+        <v>30.70389833919384</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.87718919878514</v>
+        <v>12.93095626788013</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.96412290620878</v>
+        <v>16.53000164376919</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.08998293828777</v>
+        <v>14.26988054211137</v>
       </c>
       <c r="C10">
-        <v>7.857132262130587</v>
+        <v>12.2855773856858</v>
       </c>
       <c r="D10">
-        <v>7.282874863594794</v>
+        <v>5.934557103421544</v>
       </c>
       <c r="E10">
-        <v>12.69312999769564</v>
+        <v>17.57828789374496</v>
       </c>
       <c r="F10">
-        <v>40.60557248003014</v>
+        <v>46.96134385110185</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>31.19028275970065</v>
+        <v>32.40047685331137</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.08276397493688</v>
+        <v>14.12877402339417</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.22616885684334</v>
+        <v>18.10792750996596</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.21892906082955</v>
+        <v>14.81016578668212</v>
       </c>
       <c r="C11">
-        <v>8.018810742887123</v>
+        <v>12.77413251536072</v>
       </c>
       <c r="D11">
-        <v>7.293278613833576</v>
+        <v>5.941582731101729</v>
       </c>
       <c r="E11">
-        <v>12.89240667693938</v>
+        <v>18.28672478990249</v>
       </c>
       <c r="F11">
-        <v>40.99995357179799</v>
+        <v>48.31416173295402</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>31.39406609418549</v>
+        <v>33.16948306008592</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.17890880643802</v>
+        <v>14.6523416700382</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.3484815013898</v>
+        <v>18.79901502093466</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.26790286915725</v>
+        <v>15.01158883174316</v>
       </c>
       <c r="C12">
-        <v>8.079534345704808</v>
+        <v>12.95655486666299</v>
       </c>
       <c r="D12">
-        <v>7.297174014412657</v>
+        <v>5.944278985557006</v>
       </c>
       <c r="E12">
-        <v>12.96758360663901</v>
+        <v>18.55153617866742</v>
       </c>
       <c r="F12">
-        <v>41.14921750816891</v>
+        <v>48.82367328614636</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>31.47141773517905</v>
+        <v>33.46030514980608</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.21565811775076</v>
+        <v>14.84767367346787</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.39520507833234</v>
+        <v>19.05707604857973</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.25734996710994</v>
+        <v>14.96834746877207</v>
       </c>
       <c r="C13">
-        <v>8.066479670605771</v>
+        <v>12.91737933269945</v>
       </c>
       <c r="D13">
-        <v>7.296337034881593</v>
+        <v>5.943696546516398</v>
       </c>
       <c r="E13">
-        <v>12.95140675591179</v>
+        <v>18.49465416719414</v>
       </c>
       <c r="F13">
-        <v>41.11707614151177</v>
+        <v>48.71406282104287</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>31.45475119735264</v>
+        <v>33.39768774748957</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.20772889969647</v>
+        <v>14.80573350045835</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.38512489131764</v>
+        <v>19.00165633291003</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.22295559669147</v>
+        <v>14.82679969795058</v>
       </c>
       <c r="C14">
-        <v>8.023816895085718</v>
+        <v>12.78919138567287</v>
       </c>
       <c r="D14">
-        <v>7.293599976511578</v>
+        <v>5.941803778841865</v>
       </c>
       <c r="E14">
-        <v>12.89859766165071</v>
+        <v>18.30857887946643</v>
       </c>
       <c r="F14">
-        <v>41.0122358321031</v>
+        <v>48.35613465652191</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>31.40042642911888</v>
+        <v>33.19341661087449</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.18192556373004</v>
+        <v>14.66846967769647</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.35231756547202</v>
+        <v>18.82031753489775</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.20190517778816</v>
+        <v>14.73968894443838</v>
       </c>
       <c r="C15">
-        <v>7.9976176896738</v>
+        <v>12.71034079253542</v>
       </c>
       <c r="D15">
-        <v>7.291917691693619</v>
+        <v>5.940649361032134</v>
       </c>
       <c r="E15">
-        <v>12.8662112650869</v>
+        <v>18.19415929619726</v>
       </c>
       <c r="F15">
-        <v>40.94800447544914</v>
+        <v>48.136534572663</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>31.36717355539487</v>
+        <v>33.06824588451826</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.1661636388525</v>
+        <v>14.58401410321281</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.33227385492697</v>
+        <v>18.70877484211554</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.08157942515319</v>
+        <v>14.23412003568801</v>
       </c>
       <c r="C16">
-        <v>7.846499579351908</v>
+        <v>12.2532794440105</v>
       </c>
       <c r="D16">
-        <v>7.282188743419779</v>
+        <v>5.93410244271623</v>
       </c>
       <c r="E16">
-        <v>12.68007103168743</v>
+        <v>17.53149284353484</v>
       </c>
       <c r="F16">
-        <v>40.57979362402677</v>
+        <v>46.87254305133607</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>31.17699299670829</v>
+        <v>32.35016490979921</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.07653044952934</v>
+        <v>14.09413969675671</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.21823452057557</v>
+        <v>18.06224251724417</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.00808368230075</v>
+        <v>13.91816967609204</v>
       </c>
       <c r="C17">
-        <v>7.752970153796382</v>
+        <v>11.96812622685798</v>
       </c>
       <c r="D17">
-        <v>7.276141193124398</v>
+        <v>5.93013965493889</v>
       </c>
       <c r="E17">
-        <v>12.56545364517371</v>
+        <v>17.1185552919452</v>
       </c>
       <c r="F17">
-        <v>40.35388483872986</v>
+        <v>46.09213849320556</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>31.06069512301909</v>
+        <v>31.9089312692194</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.02219059195381</v>
+        <v>13.78824674323701</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.14904229988144</v>
+        <v>17.65891001148216</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.965947538484672</v>
+        <v>13.73426830213266</v>
       </c>
       <c r="C18">
-        <v>7.698893309955588</v>
+        <v>11.80231821873788</v>
       </c>
       <c r="D18">
-        <v>7.272633622236022</v>
+        <v>5.927877144715526</v>
       </c>
       <c r="E18">
-        <v>12.49939700971851</v>
+        <v>16.87861569661025</v>
       </c>
       <c r="F18">
-        <v>40.22397535109284</v>
+        <v>45.6414356096891</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>30.99395380603571</v>
+        <v>31.6548804741926</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.99118530936737</v>
+        <v>13.61028897217602</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.10953963589323</v>
+        <v>17.42439543922592</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.951706252334592</v>
+        <v>13.67162490280596</v>
       </c>
       <c r="C19">
-        <v>7.680537624500958</v>
+        <v>11.74586593556878</v>
       </c>
       <c r="D19">
-        <v>7.271440998675349</v>
+        <v>5.927113717931857</v>
       </c>
       <c r="E19">
-        <v>12.477011154117</v>
+        <v>16.79695257843778</v>
       </c>
       <c r="F19">
-        <v>40.17999833266003</v>
+        <v>45.48852099035656</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>30.97138340833535</v>
+        <v>31.56881801427895</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.98073142270708</v>
+        <v>13.54968537931274</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.09621657444386</v>
+        <v>17.34455276043595</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.01589371634871</v>
+        <v>13.95202728871921</v>
       </c>
       <c r="C20">
-        <v>7.762956117759384</v>
+        <v>11.99866608977085</v>
       </c>
       <c r="D20">
-        <v>7.276787983150395</v>
+        <v>5.930559700751986</v>
       </c>
       <c r="E20">
-        <v>12.57766906765967</v>
+        <v>17.16276300242943</v>
       </c>
       <c r="F20">
-        <v>40.37793120399202</v>
+        <v>46.17540390868118</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>31.07305999525992</v>
+        <v>31.95592878997633</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.02794959682388</v>
+        <v>13.82101731528017</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.15637770186731</v>
+        <v>17.70210572409413</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.23305459067286</v>
+        <v>14.86846060667399</v>
       </c>
       <c r="C21">
-        <v>8.036362062403251</v>
+        <v>12.82691215164519</v>
       </c>
       <c r="D21">
-        <v>7.29440511627312</v>
+        <v>5.942358679316646</v>
       </c>
       <c r="E21">
-        <v>12.91411729429611</v>
+        <v>18.36332559399883</v>
       </c>
       <c r="F21">
-        <v>41.0430330107204</v>
+        <v>48.46134143449528</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>31.41637829306769</v>
+        <v>33.25342606381088</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.18949565771952</v>
+        <v>14.70886580098444</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.36194316578643</v>
+        <v>18.87367815337557</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.37579915618331</v>
+        <v>15.448992882875</v>
       </c>
       <c r="C22">
-        <v>8.212105107874827</v>
+        <v>13.35324354150373</v>
       </c>
       <c r="D22">
-        <v>7.305660995430144</v>
+        <v>5.950283885022584</v>
       </c>
       <c r="E22">
-        <v>13.13231291977136</v>
+        <v>19.127932373945</v>
       </c>
       <c r="F22">
-        <v>41.47720120374117</v>
+        <v>49.93925441981659</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>31.64180537875247</v>
+        <v>34.09921868796152</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.29704786123845</v>
+        <v>15.27211236790133</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.49864205475214</v>
+        <v>19.61827079589537</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.29955791637638</v>
+        <v>15.14078701430471</v>
       </c>
       <c r="C23">
-        <v>8.118597138785216</v>
+        <v>13.07364839706564</v>
       </c>
       <c r="D23">
-        <v>7.299677030823132</v>
+        <v>5.946031102655616</v>
       </c>
       <c r="E23">
-        <v>13.01603697400838</v>
+        <v>18.72159690931054</v>
       </c>
       <c r="F23">
-        <v>41.24556077354937</v>
+        <v>49.1519054811669</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>31.52140875375349</v>
+        <v>33.64798708088151</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.23947688772008</v>
+        <v>14.97300500122678</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.42548170633239</v>
+        <v>19.22272457211396</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.01236242934034</v>
+        <v>13.93672730329058</v>
       </c>
       <c r="C24">
-        <v>7.758442410078827</v>
+        <v>11.98486485199196</v>
       </c>
       <c r="D24">
-        <v>7.276495665183417</v>
+        <v>5.930369749669428</v>
       </c>
       <c r="E24">
-        <v>12.57214697257131</v>
+        <v>17.14278461345459</v>
       </c>
       <c r="F24">
-        <v>40.36705993185304</v>
+        <v>46.13776596249042</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>31.06746945983807</v>
+        <v>31.93468239406799</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.02534521462394</v>
+        <v>13.80620827771587</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.15306050118369</v>
+        <v>17.68258515974805</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.708048747748261</v>
+        <v>12.55434682710403</v>
       </c>
       <c r="C25">
-        <v>7.359527348686844</v>
+        <v>10.7413309457293</v>
       </c>
       <c r="D25">
-        <v>7.250373940265181</v>
+        <v>5.914090219271372</v>
       </c>
       <c r="E25">
-        <v>12.08864971251935</v>
+        <v>15.34621339403788</v>
       </c>
       <c r="F25">
-        <v>39.42095730829759</v>
+        <v>42.81704941372919</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>30.58372714413319</v>
+        <v>30.07679496469212</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.80405287423356</v>
+        <v>12.47012420461078</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.87063865240734</v>
+        <v>15.92399310138972</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.45994443272953</v>
+        <v>26.35450288762359</v>
       </c>
       <c r="C2">
-        <v>9.76147122203297</v>
+        <v>24.54364329471252</v>
       </c>
       <c r="D2">
-        <v>5.902341055489272</v>
+        <v>4.233682358052665</v>
       </c>
       <c r="E2">
-        <v>14.06959057220877</v>
+        <v>29.49407212392321</v>
       </c>
       <c r="F2">
-        <v>40.31541811521912</v>
+        <v>36.41212885428654</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>3.332312063034641</v>
       </c>
       <c r="I2">
-        <v>28.70169580431077</v>
+        <v>3.617296942304814</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>11.41527875815144</v>
+        <v>21.53619228197314</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.53877891959152</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.02011002402185</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.66843753003468</v>
+        <v>24.54016205993459</v>
       </c>
       <c r="C3">
-        <v>9.055237382419923</v>
+        <v>22.8288881451216</v>
       </c>
       <c r="D3">
-        <v>5.894403147259764</v>
+        <v>4.203017661551109</v>
       </c>
       <c r="E3">
-        <v>13.19396988205237</v>
+        <v>27.47445288267829</v>
       </c>
       <c r="F3">
-        <v>38.58890521176426</v>
+        <v>34.45282172541368</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.995045251629802</v>
       </c>
       <c r="I3">
-        <v>27.76710928029126</v>
+        <v>3.326609935788526</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.65417563025876</v>
+        <v>20.78913743964526</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.54076504411093</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.18659888392995</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.1572585473438</v>
+        <v>23.35890309755715</v>
       </c>
       <c r="C4">
-        <v>8.600190609828818</v>
+        <v>21.72150185510967</v>
       </c>
       <c r="D4">
-        <v>5.88950536268475</v>
+        <v>4.182559266909776</v>
       </c>
       <c r="E4">
-        <v>12.64015799845743</v>
+        <v>26.16895166936721</v>
       </c>
       <c r="F4">
-        <v>37.51562048502078</v>
+        <v>33.20793183551309</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.782121153157843</v>
       </c>
       <c r="I4">
-        <v>27.19284471938285</v>
+        <v>3.144355765473549</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.16352722658529</v>
+        <v>20.32243280442089</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.89793291043473</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.28885943766256</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.942530297577653</v>
+        <v>22.85117741722827</v>
       </c>
       <c r="C5">
-        <v>8.409287571723954</v>
+        <v>21.26092462667483</v>
       </c>
       <c r="D5">
-        <v>5.887498555239254</v>
+        <v>4.171576710320306</v>
       </c>
       <c r="E5">
-        <v>12.41052695462</v>
+        <v>25.61977990530454</v>
       </c>
       <c r="F5">
-        <v>37.0753385307294</v>
+        <v>32.67168661322356</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.693494185369257</v>
       </c>
       <c r="I5">
-        <v>26.95888436108238</v>
+        <v>3.069094122758857</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.957650783347081</v>
+        <v>20.1160253237075</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.62830893887913</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.32850477946685</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.906484801965822</v>
+        <v>22.75448209644256</v>
       </c>
       <c r="C6">
-        <v>8.377255748280046</v>
+        <v>21.18918110178451</v>
       </c>
       <c r="D6">
-        <v>5.887164529793525</v>
+        <v>4.167003385312028</v>
       </c>
       <c r="E6">
-        <v>12.3721629610198</v>
+        <v>25.52691986632429</v>
       </c>
       <c r="F6">
-        <v>37.00206765998673</v>
+        <v>32.5590608271039</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.67827788075229</v>
       </c>
       <c r="I6">
-        <v>26.92004406793501</v>
+        <v>3.056721842557329</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.92310502178184</v>
+        <v>20.06409460600425</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.58307218936618</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.33258510517187</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.15438874374236</v>
+        <v>23.32185874856209</v>
       </c>
       <c r="C7">
-        <v>8.597638267724655</v>
+        <v>21.73017026052059</v>
       </c>
       <c r="D7">
-        <v>5.889478348635302</v>
+        <v>4.174985631769317</v>
       </c>
       <c r="E7">
-        <v>12.63707690343553</v>
+        <v>26.15981726822452</v>
       </c>
       <c r="F7">
-        <v>37.50969387658945</v>
+        <v>33.1391120880488</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.779832280949451</v>
       </c>
       <c r="I7">
-        <v>27.18968898480651</v>
+        <v>3.143475226203227</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.16077481048695</v>
+        <v>20.27223278569409</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.89432783723229</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.28259153217647</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.1922086346781</v>
+        <v>25.70577819051959</v>
       </c>
       <c r="C8">
-        <v>9.522354880196795</v>
+        <v>23.98152993856622</v>
       </c>
       <c r="D8">
-        <v>5.899605944946167</v>
+        <v>4.213706994067251</v>
       </c>
       <c r="E8">
-        <v>13.77108992709498</v>
+        <v>28.80884646876331</v>
       </c>
       <c r="F8">
-        <v>39.72307854887086</v>
+        <v>35.66888944142807</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>3.215781822552671</v>
       </c>
       <c r="I8">
-        <v>28.37962966806392</v>
+        <v>3.5173187056312</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>11.15764868230094</v>
+        <v>21.21996469504914</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.20083091377465</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.06870011084382</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.03160471811035</v>
+        <v>29.9025459313294</v>
       </c>
       <c r="C9">
-        <v>11.16989807365736</v>
+        <v>27.94833097913489</v>
       </c>
       <c r="D9">
-        <v>5.919519268973406</v>
+        <v>4.290009386837608</v>
       </c>
       <c r="E9">
-        <v>15.96458988932239</v>
+        <v>33.49578430341156</v>
       </c>
       <c r="F9">
-        <v>43.94480155096714</v>
+        <v>40.38699025966228</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>4.029013702065273</v>
       </c>
       <c r="I9">
-        <v>30.70389833919384</v>
+        <v>4.224267202133528</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.93095626788013</v>
+        <v>23.09052906642481</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.53000164376919</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>11.66036041988717</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.26988054211137</v>
+        <v>32.55149377058548</v>
       </c>
       <c r="C10">
-        <v>12.2855773856858</v>
+        <v>30.45947647014112</v>
       </c>
       <c r="D10">
-        <v>5.934557103421544</v>
+        <v>4.297378501574921</v>
       </c>
       <c r="E10">
-        <v>17.57828789374496</v>
+        <v>35.75246467729287</v>
       </c>
       <c r="F10">
-        <v>46.96134385110185</v>
+        <v>43.30990379453243</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>4.558612702113545</v>
       </c>
       <c r="I10">
-        <v>32.40047685331137</v>
+        <v>4.712536659036147</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>14.12877402339417</v>
+        <v>24.2159215297534</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.10792750996596</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.33174103889483</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.81016578668212</v>
+        <v>32.70395668811369</v>
       </c>
       <c r="C11">
-        <v>12.77413251536072</v>
+        <v>30.19810712339102</v>
       </c>
       <c r="D11">
-        <v>5.941582731101729</v>
+        <v>3.997957842971973</v>
       </c>
       <c r="E11">
-        <v>18.28672478990249</v>
+        <v>29.20500841663205</v>
       </c>
       <c r="F11">
-        <v>48.31416173295402</v>
+        <v>41.9441694126637</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>4.879222390920911</v>
       </c>
       <c r="I11">
-        <v>33.16948306008592</v>
+        <v>4.783546947322547</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>14.6523416700382</v>
+        <v>23.08943717945828</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.79901502093466</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.00256756980282</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.01158883174316</v>
+        <v>32.33090467030627</v>
       </c>
       <c r="C12">
-        <v>12.95655486666299</v>
+        <v>29.45327669776425</v>
       </c>
       <c r="D12">
-        <v>5.944278985557006</v>
+        <v>3.805901092151498</v>
       </c>
       <c r="E12">
-        <v>18.55153617866742</v>
+        <v>23.28772411819021</v>
       </c>
       <c r="F12">
-        <v>48.82367328614636</v>
+        <v>40.24343344962195</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>5.605041847407351</v>
       </c>
       <c r="I12">
-        <v>33.46030514980608</v>
+        <v>4.75348262796766</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>14.84767367346787</v>
+        <v>21.95472971412109</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.05707604857973</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>10.8470586562314</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.96834746877207</v>
+        <v>31.4867204496743</v>
       </c>
       <c r="C13">
-        <v>12.91737933269945</v>
+        <v>28.2874011736604</v>
       </c>
       <c r="D13">
-        <v>5.943696546516398</v>
+        <v>3.681011443893021</v>
       </c>
       <c r="E13">
-        <v>18.49465416719414</v>
+        <v>17.40227703660505</v>
       </c>
       <c r="F13">
-        <v>48.71406282104287</v>
+        <v>38.05628475720532</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>6.543299058025796</v>
       </c>
       <c r="I13">
-        <v>33.39768774748957</v>
+        <v>4.644252976458278</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>14.80573350045835</v>
+        <v>20.66018191534308</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.00165633291003</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>10.80492815880562</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.82679969795058</v>
+        <v>30.66637991597497</v>
       </c>
       <c r="C14">
-        <v>12.78919138567287</v>
+        <v>27.27170656493257</v>
       </c>
       <c r="D14">
-        <v>5.941803778841865</v>
+        <v>3.634033978272587</v>
       </c>
       <c r="E14">
-        <v>18.30857887946643</v>
+        <v>13.38182225908216</v>
       </c>
       <c r="F14">
-        <v>48.35613465652191</v>
+        <v>36.26504736255421</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.292713437448489</v>
       </c>
       <c r="I14">
-        <v>33.19341661087449</v>
+        <v>4.534188139420254</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>14.66846967769647</v>
+        <v>19.66265791576425</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.82031753489775</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>10.83038542808084</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.73968894443838</v>
+        <v>30.35274694260002</v>
       </c>
       <c r="C15">
-        <v>12.71034079253542</v>
+        <v>26.93307627037882</v>
       </c>
       <c r="D15">
-        <v>5.940649361032134</v>
+        <v>3.629376928494674</v>
       </c>
       <c r="E15">
-        <v>18.19415929619726</v>
+        <v>12.40981291443793</v>
       </c>
       <c r="F15">
-        <v>48.136534572663</v>
+        <v>35.70100959087769</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.463318391710226</v>
       </c>
       <c r="I15">
-        <v>33.06824588451826</v>
+        <v>4.489362066499638</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>14.58401410321281</v>
+        <v>19.37028246205704</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.70877484211554</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>10.85430690320445</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.23412003568801</v>
+        <v>29.36329593291432</v>
       </c>
       <c r="C16">
-        <v>12.2532794440105</v>
+        <v>26.05630501055795</v>
       </c>
       <c r="D16">
-        <v>5.93410244271623</v>
+        <v>3.651085758419289</v>
       </c>
       <c r="E16">
-        <v>17.53149284353484</v>
+        <v>12.14152737212246</v>
       </c>
       <c r="F16">
-        <v>46.87254305133607</v>
+        <v>34.74156292595211</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.157823293259947</v>
       </c>
       <c r="I16">
-        <v>32.35016490979921</v>
+        <v>4.307638214359144</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>14.09413969675671</v>
+        <v>19.07772277476233</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.06224251724417</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>10.9960229041817</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.91816967609204</v>
+        <v>29.04458594961917</v>
       </c>
       <c r="C17">
-        <v>11.96812622685798</v>
+        <v>25.93809631598558</v>
       </c>
       <c r="D17">
-        <v>5.93013965493889</v>
+        <v>3.68588217427923</v>
       </c>
       <c r="E17">
-        <v>17.1185552919452</v>
+        <v>14.11542870984334</v>
       </c>
       <c r="F17">
-        <v>46.09213849320556</v>
+        <v>34.99270750040777</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.468486048425236</v>
       </c>
       <c r="I17">
-        <v>31.9089312692194</v>
+        <v>4.225014509865385</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>13.78824674323701</v>
+        <v>19.39548357953622</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.65891001148216</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.08913884161139</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.73426830213266</v>
+        <v>29.30662429215212</v>
       </c>
       <c r="C18">
-        <v>11.80231821873788</v>
+        <v>26.4703298227056</v>
       </c>
       <c r="D18">
-        <v>5.927877144715526</v>
+        <v>3.770466104042612</v>
       </c>
       <c r="E18">
-        <v>16.87861569661025</v>
+        <v>18.59467866139514</v>
       </c>
       <c r="F18">
-        <v>45.6414356096891</v>
+        <v>36.36318432387981</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>5.466017840739433</v>
       </c>
       <c r="I18">
-        <v>31.6548804741926</v>
+        <v>4.223287294046479</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>13.61028897217602</v>
+        <v>20.30875758160749</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.42439543922592</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.17403110691141</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.67162490280596</v>
+        <v>29.97417108953301</v>
       </c>
       <c r="C19">
-        <v>11.74586593556878</v>
+        <v>27.51151973242585</v>
       </c>
       <c r="D19">
-        <v>5.927113717931857</v>
+        <v>3.927883223892118</v>
       </c>
       <c r="E19">
-        <v>16.79695257843778</v>
+        <v>24.85921348745633</v>
       </c>
       <c r="F19">
-        <v>45.48852099035656</v>
+        <v>38.41688482158832</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>4.559668784019664</v>
       </c>
       <c r="I19">
-        <v>31.56881801427895</v>
+        <v>4.298353264998815</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>13.54968537931274</v>
+        <v>21.55398978764014</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.34455276043595</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.27172202802242</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.95202728871921</v>
+        <v>31.79714178078939</v>
       </c>
       <c r="C20">
-        <v>11.99866608977085</v>
+        <v>29.84205963781167</v>
       </c>
       <c r="D20">
-        <v>5.930559700751986</v>
+        <v>4.272228131224136</v>
       </c>
       <c r="E20">
-        <v>17.16276300242943</v>
+        <v>35.1255230571389</v>
       </c>
       <c r="F20">
-        <v>46.17540390868118</v>
+        <v>42.38680749844504</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>4.414923421819387</v>
       </c>
       <c r="I20">
-        <v>31.95592878997633</v>
+        <v>4.584013640733551</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>13.82101731528017</v>
+        <v>23.7865454354119</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.70210572409413</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.39748592928428</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.86846060667399</v>
+        <v>33.92871360302705</v>
       </c>
       <c r="C21">
-        <v>12.82691215164519</v>
+        <v>31.9359720373957</v>
       </c>
       <c r="D21">
-        <v>5.942358679316646</v>
+        <v>4.338545723065257</v>
       </c>
       <c r="E21">
-        <v>18.36332559399883</v>
+        <v>38.15106109976706</v>
       </c>
       <c r="F21">
-        <v>48.46134143449528</v>
+        <v>45.06870293132625</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>4.88681116330508</v>
       </c>
       <c r="I21">
-        <v>33.25342606381088</v>
+        <v>4.983567223007856</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>14.70886580098444</v>
+        <v>24.94961351160768</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.87367815337557</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.18464439454577</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.448992882875</v>
+        <v>35.23855177372774</v>
       </c>
       <c r="C22">
-        <v>13.35324354150373</v>
+        <v>33.16740632444882</v>
       </c>
       <c r="D22">
-        <v>5.950283885022584</v>
+        <v>4.370840445844059</v>
       </c>
       <c r="E22">
-        <v>19.127932373945</v>
+        <v>39.62153848667641</v>
       </c>
       <c r="F22">
-        <v>49.93925441981659</v>
+        <v>46.68620968367198</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>5.170461625156602</v>
       </c>
       <c r="I22">
-        <v>34.09921868796152</v>
+        <v>5.235050431940499</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>15.27211236790133</v>
+        <v>25.6574872807906</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.61827079589537</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.04129673930822</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.14078701430471</v>
+        <v>34.57040937941057</v>
       </c>
       <c r="C23">
-        <v>13.07364839706564</v>
+        <v>32.50180607768313</v>
       </c>
       <c r="D23">
-        <v>5.946031102655616</v>
+        <v>4.362124560168796</v>
       </c>
       <c r="E23">
-        <v>18.72159690931054</v>
+        <v>38.84330052786525</v>
       </c>
       <c r="F23">
-        <v>49.1519054811669</v>
+        <v>45.88179645576766</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>5.020476106074721</v>
       </c>
       <c r="I23">
-        <v>33.64798708088151</v>
+        <v>5.101101009972838</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>14.97300500122678</v>
+        <v>25.32700821918132</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.22272457211396</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.12548785178332</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.93672730329058</v>
+        <v>31.89380901243677</v>
       </c>
       <c r="C24">
-        <v>11.98486485199196</v>
+        <v>29.91674542576155</v>
       </c>
       <c r="D24">
-        <v>5.930369749669428</v>
+        <v>4.313656096473275</v>
       </c>
       <c r="E24">
-        <v>17.14278461345459</v>
+        <v>35.79241179052785</v>
       </c>
       <c r="F24">
-        <v>46.13776596249042</v>
+        <v>42.67308646550951</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>4.445526738255228</v>
       </c>
       <c r="I24">
-        <v>31.93468239406799</v>
+        <v>4.591354737845818</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>13.80620827771587</v>
+        <v>23.98722123997507</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.68258515974805</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.43085288739323</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.55434682710403</v>
+        <v>28.77676006203835</v>
       </c>
       <c r="C25">
-        <v>10.7413309457293</v>
+        <v>26.94132004897114</v>
       </c>
       <c r="D25">
-        <v>5.914090219271372</v>
+        <v>4.257591651359559</v>
       </c>
       <c r="E25">
-        <v>15.34621339403788</v>
+        <v>32.2781351958556</v>
       </c>
       <c r="F25">
-        <v>42.81704941372919</v>
+        <v>39.05258318414727</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>3.811380954857142</v>
       </c>
       <c r="I25">
-        <v>30.07679496469212</v>
+        <v>4.035169935885261</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>12.47012420461078</v>
+        <v>22.5143884993699</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.92399310138972</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.75928275949985</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.35450288762359</v>
+        <v>25.01588009843505</v>
       </c>
       <c r="C2">
-        <v>24.54364329471252</v>
+        <v>25.21124510820406</v>
       </c>
       <c r="D2">
-        <v>4.233682358052665</v>
+        <v>3.875681806175319</v>
       </c>
       <c r="E2">
-        <v>29.49407212392321</v>
+        <v>29.45885406840043</v>
       </c>
       <c r="F2">
-        <v>36.41212885428654</v>
+        <v>33.52790541813837</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.332312063034641</v>
+        <v>3.310979503175092</v>
       </c>
       <c r="I2">
-        <v>3.617296942304814</v>
+        <v>3.576424986617544</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>21.53619228197314</v>
+        <v>19.22156513415716</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.44999867514305</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.47016691082607</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.02011002402185</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.70700058458034</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.54016205993459</v>
+        <v>23.35184571195917</v>
       </c>
       <c r="C3">
-        <v>22.8288881451216</v>
+        <v>23.43346418971367</v>
       </c>
       <c r="D3">
-        <v>4.203017661551109</v>
+        <v>3.875171972548078</v>
       </c>
       <c r="E3">
-        <v>27.47445288267829</v>
+        <v>27.46943684199634</v>
       </c>
       <c r="F3">
-        <v>34.45282172541368</v>
+        <v>31.86017393574759</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.995045251629802</v>
+        <v>2.991986478029089</v>
       </c>
       <c r="I3">
-        <v>3.326609935788526</v>
+        <v>3.325590128252347</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>20.78913743964526</v>
+        <v>18.71801284866038</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.27856229333338</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.81136865210015</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.18659888392995</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>11.88633733048198</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.35890309755715</v>
+        <v>22.26708132850053</v>
       </c>
       <c r="C4">
-        <v>21.72150185510967</v>
+        <v>22.28417846957162</v>
       </c>
       <c r="D4">
-        <v>4.182559266909776</v>
+        <v>3.873150984355057</v>
       </c>
       <c r="E4">
-        <v>26.16895166936721</v>
+        <v>26.18234991615405</v>
       </c>
       <c r="F4">
-        <v>33.20793183551309</v>
+        <v>30.80142323018833</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.782121153157843</v>
+        <v>2.79031679300606</v>
       </c>
       <c r="I4">
-        <v>3.144355765473549</v>
+        <v>3.168203476360994</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>20.32243280442089</v>
+        <v>18.40418356229857</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.16455865841715</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.41670019815004</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.28885943766256</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>11.99682501314903</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.85117741722827</v>
+        <v>21.80041038031507</v>
       </c>
       <c r="C5">
-        <v>21.26092462667483</v>
+        <v>21.80545633814713</v>
       </c>
       <c r="D5">
-        <v>4.171576710320306</v>
+        <v>3.870369370732184</v>
       </c>
       <c r="E5">
-        <v>25.61977990530454</v>
+        <v>25.64073469249177</v>
       </c>
       <c r="F5">
-        <v>32.67168661322356</v>
+        <v>30.34411270926374</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.693494185369257</v>
+        <v>2.706325767055771</v>
       </c>
       <c r="I5">
-        <v>3.069094122758857</v>
+        <v>3.10347691090212</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>20.1160253237075</v>
+        <v>18.26230649103654</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.10593097163844</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.24923989774331</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.32850477946685</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.04079385116607</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.75448209644256</v>
+        <v>21.71138702874405</v>
       </c>
       <c r="C6">
-        <v>21.18918110178451</v>
+        <v>21.73031379358182</v>
       </c>
       <c r="D6">
-        <v>4.167003385312028</v>
+        <v>3.868015937619466</v>
       </c>
       <c r="E6">
-        <v>25.52691986632429</v>
+        <v>25.54919224173653</v>
       </c>
       <c r="F6">
-        <v>32.5590608271039</v>
+        <v>30.24635661349218</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.67827788075229</v>
+        <v>2.691920003124335</v>
       </c>
       <c r="I6">
-        <v>3.056721842557329</v>
+        <v>3.093249609265173</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>20.06409460600425</v>
+        <v>18.22295438224103</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.08392464255433</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.20973786244584</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.33258510517187</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.04667275235685</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.32185874856209</v>
+        <v>22.23269273835598</v>
       </c>
       <c r="C7">
-        <v>21.73017026052059</v>
+        <v>22.29170441080909</v>
       </c>
       <c r="D7">
-        <v>4.174985631769317</v>
+        <v>3.868062441110128</v>
       </c>
       <c r="E7">
-        <v>26.15981726822452</v>
+        <v>26.17349119856426</v>
       </c>
       <c r="F7">
-        <v>33.1391120880488</v>
+        <v>30.73811139404038</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.779832280949451</v>
+        <v>2.788199217405416</v>
       </c>
       <c r="I7">
-        <v>3.143475226203227</v>
+        <v>3.168470030351211</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>20.27223278569409</v>
+        <v>18.35975291234264</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.13126407734785</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.38192509138316</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.28259153217647</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>11.99361130690383</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.70577819051959</v>
+        <v>24.42072769248302</v>
       </c>
       <c r="C8">
-        <v>23.98152993856622</v>
+        <v>24.62697815556293</v>
       </c>
       <c r="D8">
-        <v>4.213706994067251</v>
+        <v>3.869379346539544</v>
       </c>
       <c r="E8">
-        <v>28.80884646876331</v>
+        <v>28.7843447943763</v>
       </c>
       <c r="F8">
-        <v>35.66888944142807</v>
+        <v>32.8892076682721</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.215781822552671</v>
+        <v>3.200898213232395</v>
       </c>
       <c r="I8">
-        <v>3.5173187056312</v>
+        <v>3.49136910955889</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>21.21996469504914</v>
+        <v>18.9946579518549</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.35227756272128</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.19885830885464</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.06870011084382</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.76418801704378</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.9025459313294</v>
+        <v>28.261890551551</v>
       </c>
       <c r="C9">
-        <v>27.94833097913489</v>
+        <v>28.73376546974796</v>
       </c>
       <c r="D9">
-        <v>4.290009386837608</v>
+        <v>3.866899713872937</v>
       </c>
       <c r="E9">
-        <v>33.49578430341156</v>
+        <v>33.39345380511787</v>
       </c>
       <c r="F9">
-        <v>40.38699025966228</v>
+        <v>36.91543768712052</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.029013702065273</v>
+        <v>3.968156171531088</v>
       </c>
       <c r="I9">
-        <v>4.224267202133528</v>
+        <v>4.099320469284905</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>23.09052906642481</v>
+        <v>20.27405904541228</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.77146239710423</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.91237993433039</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.66036041988717</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.32181820305765</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.55149377058548</v>
+        <v>30.68526904213588</v>
       </c>
       <c r="C10">
-        <v>30.45947647014112</v>
+        <v>31.32354368196493</v>
       </c>
       <c r="D10">
-        <v>4.297378501574921</v>
+        <v>3.834387164046183</v>
       </c>
       <c r="E10">
-        <v>35.75246467729287</v>
+        <v>35.59119399399952</v>
       </c>
       <c r="F10">
-        <v>43.30990379453243</v>
+        <v>39.40411840031079</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.558612702113545</v>
+        <v>4.464886338955663</v>
       </c>
       <c r="I10">
-        <v>4.712536659036147</v>
+        <v>4.518878365099225</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>24.2159215297534</v>
+        <v>21.02310255566884</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.92100079740308</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.04342424103436</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.33174103889483</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>10.98871691418982</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.70395668811369</v>
+        <v>30.89054257744331</v>
       </c>
       <c r="C11">
-        <v>30.19810712339102</v>
+        <v>31.03339723562998</v>
       </c>
       <c r="D11">
-        <v>3.997957842971973</v>
+        <v>3.681942877806541</v>
       </c>
       <c r="E11">
-        <v>29.20500841663205</v>
+        <v>29.02929325082767</v>
       </c>
       <c r="F11">
-        <v>41.9441694126637</v>
+        <v>38.16506443768813</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.879222390920911</v>
+        <v>4.792771234590821</v>
       </c>
       <c r="I11">
-        <v>4.783546947322547</v>
+        <v>4.584775382791919</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>23.08943717945828</v>
+        <v>20.02475512915234</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.03356256164318</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.48203508439001</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.00256756980282</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>10.81727417654209</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.33090467030627</v>
+        <v>30.6057738364184</v>
       </c>
       <c r="C12">
-        <v>29.45327669776425</v>
+        <v>30.24894397837603</v>
       </c>
       <c r="D12">
-        <v>3.805901092151498</v>
+        <v>3.622187182901358</v>
       </c>
       <c r="E12">
-        <v>23.28772411819021</v>
+        <v>23.10383243403383</v>
       </c>
       <c r="F12">
-        <v>40.24343344962195</v>
+        <v>36.65584221862841</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.605041847407351</v>
+        <v>5.535938823316016</v>
       </c>
       <c r="I12">
-        <v>4.75348262796766</v>
+        <v>4.561621686913608</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>21.95472971412109</v>
+        <v>19.07262690384928</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.29997774410111</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.80305980522993</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>10.8470586562314</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>10.78243066846336</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.4867204496743</v>
+        <v>29.88734585646757</v>
       </c>
       <c r="C13">
-        <v>28.2874011736604</v>
+        <v>29.02972032344248</v>
       </c>
       <c r="D13">
-        <v>3.681011443893021</v>
+        <v>3.621445244973745</v>
       </c>
       <c r="E13">
-        <v>17.40227703660505</v>
+        <v>17.21142087339874</v>
       </c>
       <c r="F13">
-        <v>38.05628475720532</v>
+        <v>34.73243888165121</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.543299058025796</v>
+        <v>6.49259395536438</v>
       </c>
       <c r="I13">
-        <v>4.644252976458278</v>
+        <v>4.470311152017008</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>20.66018191534308</v>
+        <v>18.02515774314075</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.58469450408503</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.93220536396763</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>10.80492815880562</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>10.83953203167232</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.66637991597497</v>
+        <v>29.17359708585688</v>
       </c>
       <c r="C14">
-        <v>27.27170656493257</v>
+        <v>27.96894663676692</v>
       </c>
       <c r="D14">
-        <v>3.634033978272587</v>
+        <v>3.65274787581782</v>
       </c>
       <c r="E14">
-        <v>13.38182225908216</v>
+        <v>13.1825184107522</v>
       </c>
       <c r="F14">
-        <v>36.26504736255421</v>
+        <v>33.16241107287031</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.292713437448489</v>
+        <v>7.253392506136483</v>
       </c>
       <c r="I14">
-        <v>4.534188139420254</v>
+        <v>4.377700685530636</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>19.66265791576425</v>
+        <v>17.23385778719306</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.08068184453055</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.22173784627924</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>10.83038542808084</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>10.92195209679238</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.35274694260002</v>
+        <v>28.89501440735194</v>
       </c>
       <c r="C15">
-        <v>26.93307627037882</v>
+        <v>27.61582467357578</v>
       </c>
       <c r="D15">
-        <v>3.629376928494674</v>
+        <v>3.665313956562001</v>
       </c>
       <c r="E15">
-        <v>12.40981291443793</v>
+        <v>12.21046921361201</v>
       </c>
       <c r="F15">
-        <v>35.70100959087769</v>
+        <v>32.66988794523292</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.463318391710226</v>
+        <v>7.427073945791511</v>
       </c>
       <c r="I15">
-        <v>4.489362066499638</v>
+        <v>4.340095292152895</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>19.37028246205704</v>
+        <v>17.00752791260635</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.94999829717879</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.99720288079316</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>10.85430690320445</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>10.95680217057338</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.36329593291432</v>
+        <v>27.98293364243608</v>
       </c>
       <c r="C16">
-        <v>26.05630501055795</v>
+        <v>26.71081358773835</v>
       </c>
       <c r="D16">
-        <v>3.651085758419289</v>
+        <v>3.670463300750483</v>
       </c>
       <c r="E16">
-        <v>12.14152737212246</v>
+        <v>11.97568761459531</v>
       </c>
       <c r="F16">
-        <v>34.74156292595211</v>
+        <v>31.85740200446191</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.157823293259947</v>
+        <v>7.127780798948794</v>
       </c>
       <c r="I16">
-        <v>4.307638214359144</v>
+        <v>4.183880641892784</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>19.07772277476233</v>
+        <v>16.84103543202558</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.97381951219748</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.63996274268259</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>10.9960229041817</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.07005774874804</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.04458594961917</v>
+        <v>27.66537248722886</v>
       </c>
       <c r="C17">
-        <v>25.93809631598558</v>
+        <v>26.59627554481543</v>
       </c>
       <c r="D17">
-        <v>3.68588217427923</v>
+        <v>3.654801663586381</v>
       </c>
       <c r="E17">
-        <v>14.11542870984334</v>
+        <v>13.97807404954734</v>
       </c>
       <c r="F17">
-        <v>34.99270750040777</v>
+        <v>32.09998272101056</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.468486048425236</v>
+        <v>6.438403034812811</v>
       </c>
       <c r="I17">
-        <v>4.225014509865385</v>
+        <v>4.111931284928593</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>19.39548357953622</v>
+        <v>17.14204368722669</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.26826756542636</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.75322157212123</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.08913884161139</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.11471728094123</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.30662429215212</v>
+        <v>27.86025042176924</v>
       </c>
       <c r="C18">
-        <v>26.4703298227056</v>
+        <v>27.16146677656825</v>
       </c>
       <c r="D18">
-        <v>3.770466104042612</v>
+        <v>3.646701902135262</v>
       </c>
       <c r="E18">
-        <v>18.59467866139514</v>
+        <v>18.47510824232356</v>
       </c>
       <c r="F18">
-        <v>36.36318432387981</v>
+        <v>33.32181812083446</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.466017840739433</v>
+        <v>5.428933629196662</v>
       </c>
       <c r="I18">
-        <v>4.223287294046479</v>
+        <v>4.107439452703919</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>20.30875758160749</v>
+        <v>17.91007872928406</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.85972618174028</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.3026979702756</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.17403110691141</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.12045273407206</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.97417108953301</v>
+        <v>28.41386447951977</v>
       </c>
       <c r="C19">
-        <v>27.51151973242585</v>
+        <v>28.25434341026791</v>
       </c>
       <c r="D19">
-        <v>3.927883223892118</v>
+        <v>3.683268039448489</v>
       </c>
       <c r="E19">
-        <v>24.85921348745633</v>
+        <v>24.74222412611055</v>
       </c>
       <c r="F19">
-        <v>38.41688482158832</v>
+        <v>35.13309543927696</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.559668784019664</v>
+        <v>4.507187648899836</v>
       </c>
       <c r="I19">
-        <v>4.298353264998815</v>
+        <v>4.170131804580184</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>21.55398978764014</v>
+        <v>18.92759343067069</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.60334340980918</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.10017975953242</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.27172202802242</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.11659980134893</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.79714178078939</v>
+        <v>29.99531923620546</v>
       </c>
       <c r="C20">
-        <v>29.84205963781167</v>
+        <v>30.68411527616973</v>
       </c>
       <c r="D20">
-        <v>4.272228131224136</v>
+        <v>3.828628129546705</v>
       </c>
       <c r="E20">
-        <v>35.1255230571389</v>
+        <v>34.98091253796123</v>
       </c>
       <c r="F20">
-        <v>42.38680749844504</v>
+        <v>38.60573009445902</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.414923421819387</v>
+        <v>4.330342064742976</v>
       </c>
       <c r="I20">
-        <v>4.584013640733551</v>
+        <v>4.411934188053491</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>23.7865454354119</v>
+        <v>20.70473318826311</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.795842401372</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.64931428993722</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.39748592928428</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.06767027723685</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.92871360302705</v>
+        <v>31.92994912162086</v>
       </c>
       <c r="C21">
-        <v>31.9359720373957</v>
+        <v>32.84432650947533</v>
       </c>
       <c r="D21">
-        <v>4.338545723065257</v>
+        <v>3.834515027105059</v>
       </c>
       <c r="E21">
-        <v>38.15106109976706</v>
+        <v>37.95608387372718</v>
       </c>
       <c r="F21">
-        <v>45.06870293132625</v>
+        <v>40.90574995556205</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.88681116330508</v>
+        <v>4.773911879029489</v>
       </c>
       <c r="I21">
-        <v>4.983567223007856</v>
+        <v>4.753326937073057</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>24.94961351160768</v>
+        <v>21.53114898875555</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.08679825758398</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.72080345683613</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.18464439454577</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>10.82182717566165</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.23855177372774</v>
+        <v>33.12040196910726</v>
       </c>
       <c r="C22">
-        <v>33.16740632444882</v>
+        <v>34.11269536747425</v>
       </c>
       <c r="D22">
-        <v>4.370840445844059</v>
+        <v>3.832558601381656</v>
       </c>
       <c r="E22">
-        <v>39.62153848667641</v>
+        <v>39.39278381378558</v>
       </c>
       <c r="F22">
-        <v>46.68620968367198</v>
+        <v>42.29413634891696</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.170461625156602</v>
+        <v>5.03927722815647</v>
       </c>
       <c r="I22">
-        <v>5.235050431940499</v>
+        <v>4.966622811719186</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>25.6574872807906</v>
+        <v>22.0364897819721</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17.24784280555451</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.39197721451164</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.04129673930822</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>10.66059677148502</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.57040937941057</v>
+        <v>32.51383599338417</v>
       </c>
       <c r="C23">
-        <v>32.50180607768313</v>
+        <v>33.42844463022212</v>
       </c>
       <c r="D23">
-        <v>4.362124560168796</v>
+        <v>3.839077831515064</v>
       </c>
       <c r="E23">
-        <v>38.84330052786525</v>
+        <v>38.63241821400064</v>
       </c>
       <c r="F23">
-        <v>45.88179645576766</v>
+        <v>41.60745712367552</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5.020476106074721</v>
+        <v>4.898939167775991</v>
       </c>
       <c r="I23">
-        <v>5.101101009972838</v>
+        <v>4.851785972675813</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>25.32700821918132</v>
+        <v>21.80942933187109</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.1923458671203</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.06758947497239</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.12548785178332</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>10.74975742064573</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.89380901243677</v>
+        <v>30.07811796602939</v>
       </c>
       <c r="C24">
-        <v>29.91674542576155</v>
+        <v>30.76462699772718</v>
       </c>
       <c r="D24">
-        <v>4.313656096473275</v>
+        <v>3.852207575363785</v>
       </c>
       <c r="E24">
-        <v>35.79241179052785</v>
+        <v>35.64662004629912</v>
       </c>
       <c r="F24">
-        <v>42.67308646550951</v>
+        <v>38.86264008602005</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.445526738255228</v>
+        <v>4.359904758517756</v>
       </c>
       <c r="I24">
-        <v>4.591354737845818</v>
+        <v>4.41579336084391</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>23.98722123997507</v>
+        <v>20.87699717822901</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.92461980080992</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.78016571026326</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.43085288739323</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.08085819646191</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.77676006203835</v>
+        <v>27.23237447878091</v>
       </c>
       <c r="C25">
-        <v>26.94132004897114</v>
+        <v>27.69042485501382</v>
       </c>
       <c r="D25">
-        <v>4.257591651359559</v>
+        <v>3.860558058193585</v>
       </c>
       <c r="E25">
-        <v>32.2781351958556</v>
+        <v>32.19776204461747</v>
       </c>
       <c r="F25">
-        <v>39.05258318414727</v>
+        <v>35.76877751758351</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.811380954857142</v>
+        <v>3.763263539987334</v>
       </c>
       <c r="I25">
-        <v>4.035169935885261</v>
+        <v>3.93869583611777</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>22.5143884993699</v>
+        <v>19.86174244268372</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.614006778299</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.39028356733492</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.75928275949985</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.4360368687531</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
